--- a/doc/SampleData/Book/books.xlsx
+++ b/doc/SampleData/Book/books.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="使っている技術やタグ" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,14 +19,108 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>bookID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tag</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bookimage</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bookTitle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bookAuther</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bookDate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>"#インフラ"</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>"#AWS"</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>"#C言語"</t>
+    <rPh sb="3" eb="5">
+      <t>ゲンゴ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>"#Webアプリケーション"</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>"#DB"</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>"#RPA"</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>"#Java"</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>"#JavaScript"</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>"##C"</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>"#Lisp"</t>
+    <phoneticPr fontId="3"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -46,14 +141,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,7 +171,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +216,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +251,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +433,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <cols>
+    <col min="3" max="3" width="10.0625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="18.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/SampleData/Book/books.xlsx
+++ b/doc/SampleData/Book/books.xlsx
@@ -1,104 +1,641 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BBB786-6112-4AF8-8B57-D502D19D7B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="使っている技術やタグ" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="143">
   <si>
     <t>bookID</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>tag</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>bookimage</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>bookTitle</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>bookAuther</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>bookDate</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>"#インフラ"</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>"#AWS"</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>"#C言語"</t>
     <rPh sb="3" eb="5">
       <t>ゲンゴ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>"#Webアプリケーション"</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>"#DB"</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>"#RPA"</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>"#Java"</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>"#JavaScript"</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>"##C"</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>"#Lisp"</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>978-4774181882</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Webサーバを作りながら学ぶ 基礎からのWebアプリケーション開発入門 (Software Design plus)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>前橋 和弥</t>
+  </si>
+  <si>
+    <t>978-4844378730</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>いまさらRPA</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>カナタニチアキ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>/img/Web_03.jpg</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>/img/RPA_03.jpg</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>/img/Lisp_02.jpg</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>978-4781905372</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>これがLISPだ!</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>玉井 浩 (翻訳), アンダーソン</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Java 第3版 実践編 アプリケーション作りの基本</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>三谷 純</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>978-4798167077</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>/img/Java_03.jpg</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>絵で見てわかるOracleの仕組み 新装版</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>小田 圭二</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>978-4798157696</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>/img/DB_01_.jpg</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>978-4295007807</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>中山清喬  (著), 国本大悟  (著)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>スッキリわかるJava入門 第3版 (スッキリわかる入門シリーズ)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>/img/Java_02.jpg</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1週間でMySQLの基礎が学べる本</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>亀田 健司</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>978-4295012559</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>/img/DB_02_.jpg</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>#Webアプリケーション</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>#RPA</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>#Lisp</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>#Java</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>#DB</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AWSコンテナ設計・構築[本格]入門</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>新井雅也</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>978-4815607654</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>#AWS</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>/img/AWS_01.jpg</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>/img/AWS_02.jpg</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>/img/AWS_03.jpg</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>NRIネットコム株式会社 (著), 佐々木 拓郎  (著), 林 晋一郎 (著), 金澤 圭  (著)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AWS認定資格試験テキスト AWS認定ソリューションアーキテクト - アソシエイト 改訂第2版</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>978-4815607388</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>NRIネットコム株式会社 (著), 上野 史瑛  (著), 小林 恭平  (著), 尾澤 公亮  (著), 高梨 友之 (著)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>図解 Amazon Web Servicesの仕組みとサービスがたった1日でよくわかる</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>978-4815612818</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>/img/C_Origin_01.jpg</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>/img/C_Origin_02.jpg</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>/img/C_Origin_03.jpg</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>#C言語</t>
+    <rPh sb="2" eb="4">
+      <t>ゲンゴ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>苦しんで覚えるC言語</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>MMGames (著)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>978-4798030142</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>スッキリわかるC言語入門 第2版 (スッキリわかる入門シリーズ)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>中山 清喬  (著), 株式会社フレアリンク (監修)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>978-4295012788</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>新ANSI C言語辞典</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>平林 雅英  (著)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>978-4774104324</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>##C</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>/img/C_Sharp_01.jpg</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>/img/C_Sharp_02.jpg</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>/img/C_Sharp_03.jpg</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>新・標準プログラマーズライブラリ なるほどなっとく C#入門</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>出井 秀行  (著)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>978-4297104580</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>独習C# 第5版</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>山田 祥寛  (著)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>978-4798175560</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1週間でC#の基礎が学べる本 (1週間シリーズ) </t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>亀田 健司  (著)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>978-4295007333</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>/img/DB_03_.jpg</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>SQL逆引き大全363の極意</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>株式会社アシスト (著)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>978-4798038520</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>/img/Infrastructure_01.jpg</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>/img/Infrastructure_02.jpg</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>/img/Infrastructure_03.jpg</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>#インフラ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>絵で見てわかるITインフラの仕組み 新装版</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>山崎 泰史 (著), 三縄 慶子 (著), 畔勝 洋平 (著), 佐藤 貴彦  (著), 小田 圭二 (監修)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>978-4798158464</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>インフラ女子の日常</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>なつよ  (著), 九龍 真乙  (監修)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>978-4863543843</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve">インフラ系チートシート集 (技術の泉シリーズ（NextPublishing）) </t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>小林 隆宏 (著)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>978-4295600428</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>/img/JavaScript_01.jpg</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>/img/JavaScript_02.jpg</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>/img/JavaScript_03.jpg</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>#JavaScript</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ゲームで学ぶJavaScript入門 HTML5&amp;CSSも身に付く! </t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>田中 賢一郎  (著)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>978-4844339786</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>978-4798157573</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve">JavaScript逆引きレシピ 第2版 </t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve">いちばんやさしいJavaScriptの教本 第2版 ECMAScript 2017(ES8)対応 人気講師が教えるWebプログラミング入門 (「いちばんやさしい教本」シリーズ) </t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>岩田宇史  (著)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>978-4295005926</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>978-4798119410</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>/img/Lisp_01.jpg</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>初めての人のためのLISP[増補改訂版]</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>竹内 郁雄  (著)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>やさしいLisp入門</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>酒井 皇治  (著)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>978-4877831028</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>/img/Lisp_03.jpg</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>/img/RPA_01.jpg</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>#RPA</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>/img/RPA_02.jpg</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Power Automate for Desktop RPA開発 超入門</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>掌田津耶乃  (著)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>978-4798066974</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>できるPower Automate Desktop ノーコードで実現するはじめてのRPA (できるシリーズ)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>あーちゃん  (著), できるシリーズ編集部 (著), 株式会社ASAHI Accounting Robot 研究所 (監修)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>978-4295011750</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>/img/Web_02.jpg</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>/img/Web_01.jpg</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>初心者からちゃんとしたプロになる Webデザイン基礎入門〈HTML、CSS、レスポンシブ〉</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>栗谷 幸助  (著), おの れいこ (著), 藤本 勝己 (著), 村上 圭 (著), 吉本 孝一 (著)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>978-4844368908</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>体系的に学ぶ 安全なWebアプリケーションの作り方 第2版［リフロー版］　脆弱性が生まれる原理と対策の実践</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>徳丸 浩  (著)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>978-4797393163</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ダミー</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -143,19 +680,26 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -432,20 +976,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection sqref="A1:F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="10.0625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.58203125" customWidth="1"/>
+    <col min="5" max="5" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,28 +1014,833 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="2">
+        <v>44490</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="2">
+        <v>44217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="2">
+        <v>44594</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="2">
+        <v>40718</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="2">
+        <v>44544</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="2">
+        <v>35551</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="2">
+        <v>43540</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="2">
+        <v>44763</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="2">
+        <v>43720</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="2">
+        <v>43535</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="2">
+        <v>41453</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="2">
+        <v>43635</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="2">
+        <v>44663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="2">
+        <v>44589</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="2">
+        <v>43784</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="2">
+        <v>44224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="2">
+        <v>42349</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="2">
+        <v>43388</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="2">
+        <v>43546</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="2">
+        <v>40247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="2">
+        <v>32540</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" s="2">
+        <v>38047</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" s="2">
+        <v>44624</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="2">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="2">
+        <v>44099</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" t="s">
+        <v>135</v>
+      </c>
+      <c r="D28" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" t="s">
+        <v>137</v>
+      </c>
+      <c r="F28" s="2">
+        <v>43733</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29" t="s">
+        <v>139</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" s="2">
+        <v>43272</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="2">
+        <v>42528</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43">
+        <v>13</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45">
+        <v>15</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46">
+        <v>16</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" t="s">
+        <v>142</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="18.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -494,7 +1848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -502,7 +1856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -510,15 +1864,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -526,7 +1880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -534,7 +1888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -542,7 +1896,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -550,7 +1904,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -558,7 +1912,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -567,7 +1921,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/doc/SampleData/Book/books.xlsx
+++ b/doc/SampleData/Book/books.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BBB786-6112-4AF8-8B57-D502D19D7B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F555F7-C4B8-4F8A-AB82-8CA90B87C964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="165">
   <si>
     <t>bookID</t>
     <phoneticPr fontId="4"/>
@@ -607,6 +607,94 @@
   </si>
   <si>
     <t>ダミー</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Javaの絵本 第3版 Javaが好きになる新しい9つの扉</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>/img/Java_04.jpg</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>株式会社アンク  (著)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>978-4798150376</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>新わかりやすいJava オブジェクト指向徹底解説 第2版</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>川場隆  (著)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>/img/Java_05.jpg</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>978-4798065007</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve">スッキリわかるJava入門 実践編 第3版 (スッキリわかる入門シリーズ) </t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>978-4295011248</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>/img/Java_06.jpg</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>独習Java 新版</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>978-4798151120</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>/img/Java_07.jpg</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>きしだ なおき  (著), 山本 裕介  (著), 杉山 貴章  (著)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>プロになるJava―仕事で必要なプログラミングの知識がゼロから身につく最高の指南書</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>978-4297126858</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>/img/Java_08.jpg</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>/img/Java_09.jpg</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Java言語で学ぶデザインパターン入門第3版</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve">結城 浩  (著) </t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>978-4815609801</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -980,8 +1068,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection sqref="A1:F46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1622,7 +1710,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1636,7 +1724,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>4</v>
       </c>
@@ -1650,7 +1738,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>5</v>
       </c>
@@ -1664,7 +1752,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>6</v>
       </c>
@@ -1678,7 +1766,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>7</v>
       </c>
@@ -1692,7 +1780,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>8</v>
       </c>
@@ -1706,91 +1794,127 @@
         <v>142</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39">
-        <v>9</v>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>146</v>
       </c>
       <c r="B39" t="s">
         <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>39</v>
+        <v>144</v>
       </c>
       <c r="D39" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40">
-        <v>10</v>
+        <v>143</v>
+      </c>
+      <c r="E39" t="s">
+        <v>145</v>
+      </c>
+      <c r="F39" s="2">
+        <v>42719</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
+        <v>150</v>
       </c>
       <c r="B40" t="s">
         <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>39</v>
+        <v>149</v>
       </c>
       <c r="D40" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41">
-        <v>11</v>
+        <v>147</v>
+      </c>
+      <c r="E40" t="s">
+        <v>148</v>
+      </c>
+      <c r="F40" s="2">
+        <v>44589</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>152</v>
       </c>
       <c r="B41" t="s">
         <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>39</v>
+        <v>153</v>
       </c>
       <c r="D41" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42">
-        <v>12</v>
+        <v>151</v>
+      </c>
+      <c r="E41" t="s">
+        <v>70</v>
+      </c>
+      <c r="F41" s="2">
+        <v>44306</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
+        <v>155</v>
       </c>
       <c r="B42" t="s">
         <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="D42" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43">
-        <v>13</v>
+        <v>154</v>
+      </c>
+      <c r="E42" t="s">
+        <v>83</v>
+      </c>
+      <c r="F42" s="2">
+        <v>43600</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
+        <v>159</v>
       </c>
       <c r="B43" t="s">
         <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="D43" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44">
-        <v>14</v>
+        <v>158</v>
+      </c>
+      <c r="E43" t="s">
+        <v>157</v>
+      </c>
+      <c r="F43" s="2">
+        <v>44639</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="s">
+        <v>164</v>
       </c>
       <c r="B44" t="s">
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>39</v>
+        <v>161</v>
       </c>
       <c r="D44" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>162</v>
+      </c>
+      <c r="E44" t="s">
+        <v>163</v>
+      </c>
+      <c r="F44" s="2">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>15</v>
       </c>
@@ -1804,7 +1928,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>16</v>
       </c>
